--- a/backend/fms_core/tests/valid_templates/Library_conversion_v3_9_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Library_conversion_v3_9_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/tests/valid_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A680C8-4541-BB49-AD7E-803B9AE2052C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BD12E3-CCAB-844A-ACEA-A1302B80598D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15940" xr2:uid="{405E7239-1D14-6F47-A693-F6EDB1481B97}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <r>
       <t>(</t>
@@ -1085,9 +1085,6 @@
       <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
       <c r="I12" s="35">
         <v>2</v>
       </c>
@@ -3345,7 +3342,7 @@
       <c r="K11" s="37"/>
       <c r="L11" s="34"/>
       <c r="M11" s="35" t="str">
-        <f>IF(L11,L11/J11, "" )</f>
+        <f t="shared" ref="M11:M74" si="0">IF(L11,L11/J11, "" )</f>
         <v/>
       </c>
     </row>
@@ -3358,7 +3355,7 @@
       <c r="K12" s="37"/>
       <c r="L12" s="34"/>
       <c r="M12" s="35" t="str">
-        <f>IF(L12,L12/J12, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3371,7 +3368,7 @@
       <c r="K13" s="37"/>
       <c r="L13" s="34"/>
       <c r="M13" s="35" t="str">
-        <f>IF(L13,L13/J13, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3384,7 +3381,7 @@
       <c r="K14" s="37"/>
       <c r="L14" s="34"/>
       <c r="M14" s="35" t="str">
-        <f>IF(L14,L14/J14, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3397,7 +3394,7 @@
       <c r="K15" s="37"/>
       <c r="L15" s="34"/>
       <c r="M15" s="35" t="str">
-        <f>IF(L15,L15/J15, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3410,7 +3407,7 @@
       <c r="K16" s="37"/>
       <c r="L16" s="34"/>
       <c r="M16" s="35" t="str">
-        <f>IF(L16,L16/J16, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3423,7 +3420,7 @@
       <c r="K17" s="37"/>
       <c r="L17" s="34"/>
       <c r="M17" s="35" t="str">
-        <f>IF(L17,L17/J17, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3436,7 +3433,7 @@
       <c r="K18" s="37"/>
       <c r="L18" s="34"/>
       <c r="M18" s="35" t="str">
-        <f>IF(L18,L18/J18, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3449,7 +3446,7 @@
       <c r="K19" s="37"/>
       <c r="L19" s="34"/>
       <c r="M19" s="35" t="str">
-        <f>IF(L19,L19/J19, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3462,7 +3459,7 @@
       <c r="K20" s="37"/>
       <c r="L20" s="34"/>
       <c r="M20" s="35" t="str">
-        <f>IF(L20,L20/J20, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3475,7 +3472,7 @@
       <c r="K21" s="37"/>
       <c r="L21" s="34"/>
       <c r="M21" s="35" t="str">
-        <f>IF(L21,L21/J21, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3488,7 +3485,7 @@
       <c r="K22" s="37"/>
       <c r="L22" s="34"/>
       <c r="M22" s="35" t="str">
-        <f>IF(L22,L22/J22, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3501,7 +3498,7 @@
       <c r="K23" s="37"/>
       <c r="L23" s="34"/>
       <c r="M23" s="35" t="str">
-        <f>IF(L23,L23/J23, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3514,7 +3511,7 @@
       <c r="K24" s="37"/>
       <c r="L24" s="34"/>
       <c r="M24" s="35" t="str">
-        <f>IF(L24,L24/J24, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3527,7 +3524,7 @@
       <c r="K25" s="37"/>
       <c r="L25" s="34"/>
       <c r="M25" s="35" t="str">
-        <f>IF(L25,L25/J25, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3540,7 +3537,7 @@
       <c r="K26" s="37"/>
       <c r="L26" s="34"/>
       <c r="M26" s="35" t="str">
-        <f>IF(L26,L26/J26, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3553,7 +3550,7 @@
       <c r="K27" s="37"/>
       <c r="L27" s="34"/>
       <c r="M27" s="35" t="str">
-        <f>IF(L27,L27/J27, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3566,7 +3563,7 @@
       <c r="K28" s="37"/>
       <c r="L28" s="34"/>
       <c r="M28" s="35" t="str">
-        <f>IF(L28,L28/J28, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3579,7 +3576,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="34"/>
       <c r="M29" s="35" t="str">
-        <f>IF(L29,L29/J29, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3592,7 +3589,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="34"/>
       <c r="M30" s="35" t="str">
-        <f>IF(L30,L30/J30, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3605,7 +3602,7 @@
       <c r="K31" s="37"/>
       <c r="L31" s="34"/>
       <c r="M31" s="35" t="str">
-        <f>IF(L31,L31/J31, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3618,7 +3615,7 @@
       <c r="K32" s="37"/>
       <c r="L32" s="34"/>
       <c r="M32" s="35" t="str">
-        <f>IF(L32,L32/J32, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3631,7 +3628,7 @@
       <c r="K33" s="37"/>
       <c r="L33" s="34"/>
       <c r="M33" s="35" t="str">
-        <f>IF(L33,L33/J33, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3644,7 +3641,7 @@
       <c r="K34" s="37"/>
       <c r="L34" s="34"/>
       <c r="M34" s="35" t="str">
-        <f>IF(L34,L34/J34, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3657,7 +3654,7 @@
       <c r="K35" s="37"/>
       <c r="L35" s="34"/>
       <c r="M35" s="35" t="str">
-        <f>IF(L35,L35/J35, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3670,7 +3667,7 @@
       <c r="K36" s="37"/>
       <c r="L36" s="34"/>
       <c r="M36" s="35" t="str">
-        <f>IF(L36,L36/J36, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3683,7 +3680,7 @@
       <c r="K37" s="37"/>
       <c r="L37" s="34"/>
       <c r="M37" s="35" t="str">
-        <f>IF(L37,L37/J37, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3696,7 +3693,7 @@
       <c r="K38" s="37"/>
       <c r="L38" s="34"/>
       <c r="M38" s="35" t="str">
-        <f>IF(L38,L38/J38, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3709,7 +3706,7 @@
       <c r="K39" s="37"/>
       <c r="L39" s="34"/>
       <c r="M39" s="35" t="str">
-        <f>IF(L39,L39/J39, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3722,7 +3719,7 @@
       <c r="K40" s="37"/>
       <c r="L40" s="34"/>
       <c r="M40" s="35" t="str">
-        <f>IF(L40,L40/J40, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3735,7 +3732,7 @@
       <c r="K41" s="37"/>
       <c r="L41" s="34"/>
       <c r="M41" s="35" t="str">
-        <f>IF(L41,L41/J41, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3748,7 +3745,7 @@
       <c r="K42" s="37"/>
       <c r="L42" s="34"/>
       <c r="M42" s="35" t="str">
-        <f>IF(L42,L42/J42, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3761,7 +3758,7 @@
       <c r="K43" s="37"/>
       <c r="L43" s="34"/>
       <c r="M43" s="35" t="str">
-        <f>IF(L43,L43/J43, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3774,7 +3771,7 @@
       <c r="K44" s="37"/>
       <c r="L44" s="34"/>
       <c r="M44" s="35" t="str">
-        <f>IF(L44,L44/J44, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3787,7 +3784,7 @@
       <c r="K45" s="37"/>
       <c r="L45" s="34"/>
       <c r="M45" s="35" t="str">
-        <f>IF(L45,L45/J45, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3800,7 +3797,7 @@
       <c r="K46" s="37"/>
       <c r="L46" s="34"/>
       <c r="M46" s="35" t="str">
-        <f>IF(L46,L46/J46, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3813,7 +3810,7 @@
       <c r="K47" s="37"/>
       <c r="L47" s="34"/>
       <c r="M47" s="35" t="str">
-        <f>IF(L47,L47/J47, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3826,7 +3823,7 @@
       <c r="K48" s="37"/>
       <c r="L48" s="34"/>
       <c r="M48" s="35" t="str">
-        <f>IF(L48,L48/J48, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3839,7 +3836,7 @@
       <c r="K49" s="37"/>
       <c r="L49" s="34"/>
       <c r="M49" s="35" t="str">
-        <f>IF(L49,L49/J49, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3852,7 +3849,7 @@
       <c r="K50" s="37"/>
       <c r="L50" s="34"/>
       <c r="M50" s="35" t="str">
-        <f>IF(L50,L50/J50, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3865,7 +3862,7 @@
       <c r="K51" s="37"/>
       <c r="L51" s="34"/>
       <c r="M51" s="35" t="str">
-        <f>IF(L51,L51/J51, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3878,7 +3875,7 @@
       <c r="K52" s="37"/>
       <c r="L52" s="34"/>
       <c r="M52" s="35" t="str">
-        <f>IF(L52,L52/J52, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3891,7 +3888,7 @@
       <c r="K53" s="37"/>
       <c r="L53" s="34"/>
       <c r="M53" s="35" t="str">
-        <f>IF(L53,L53/J53, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3904,7 +3901,7 @@
       <c r="K54" s="37"/>
       <c r="L54" s="34"/>
       <c r="M54" s="35" t="str">
-        <f>IF(L54,L54/J54, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3917,7 +3914,7 @@
       <c r="K55" s="37"/>
       <c r="L55" s="34"/>
       <c r="M55" s="35" t="str">
-        <f>IF(L55,L55/J55, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3930,7 +3927,7 @@
       <c r="K56" s="37"/>
       <c r="L56" s="34"/>
       <c r="M56" s="35" t="str">
-        <f>IF(L56,L56/J56, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3943,7 +3940,7 @@
       <c r="K57" s="37"/>
       <c r="L57" s="34"/>
       <c r="M57" s="35" t="str">
-        <f>IF(L57,L57/J57, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3956,7 +3953,7 @@
       <c r="K58" s="37"/>
       <c r="L58" s="34"/>
       <c r="M58" s="35" t="str">
-        <f>IF(L58,L58/J58, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3969,7 +3966,7 @@
       <c r="K59" s="37"/>
       <c r="L59" s="34"/>
       <c r="M59" s="35" t="str">
-        <f>IF(L59,L59/J59, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3982,7 +3979,7 @@
       <c r="K60" s="37"/>
       <c r="L60" s="34"/>
       <c r="M60" s="35" t="str">
-        <f>IF(L60,L60/J60, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3995,7 +3992,7 @@
       <c r="K61" s="37"/>
       <c r="L61" s="34"/>
       <c r="M61" s="35" t="str">
-        <f>IF(L61,L61/J61, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4008,7 +4005,7 @@
       <c r="K62" s="37"/>
       <c r="L62" s="34"/>
       <c r="M62" s="35" t="str">
-        <f>IF(L62,L62/J62, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4021,7 +4018,7 @@
       <c r="K63" s="37"/>
       <c r="L63" s="34"/>
       <c r="M63" s="35" t="str">
-        <f>IF(L63,L63/J63, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4034,7 +4031,7 @@
       <c r="K64" s="37"/>
       <c r="L64" s="34"/>
       <c r="M64" s="35" t="str">
-        <f>IF(L64,L64/J64, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4047,7 +4044,7 @@
       <c r="K65" s="37"/>
       <c r="L65" s="34"/>
       <c r="M65" s="35" t="str">
-        <f>IF(L65,L65/J65, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4060,7 +4057,7 @@
       <c r="K66" s="37"/>
       <c r="L66" s="34"/>
       <c r="M66" s="35" t="str">
-        <f>IF(L66,L66/J66, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4073,7 +4070,7 @@
       <c r="K67" s="37"/>
       <c r="L67" s="34"/>
       <c r="M67" s="35" t="str">
-        <f>IF(L67,L67/J67, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4086,7 +4083,7 @@
       <c r="K68" s="37"/>
       <c r="L68" s="34"/>
       <c r="M68" s="35" t="str">
-        <f>IF(L68,L68/J68, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4099,7 +4096,7 @@
       <c r="K69" s="37"/>
       <c r="L69" s="34"/>
       <c r="M69" s="35" t="str">
-        <f>IF(L69,L69/J69, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4112,7 +4109,7 @@
       <c r="K70" s="37"/>
       <c r="L70" s="34"/>
       <c r="M70" s="35" t="str">
-        <f>IF(L70,L70/J70, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4125,7 +4122,7 @@
       <c r="K71" s="37"/>
       <c r="L71" s="34"/>
       <c r="M71" s="35" t="str">
-        <f>IF(L71,L71/J71, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4138,7 +4135,7 @@
       <c r="K72" s="37"/>
       <c r="L72" s="34"/>
       <c r="M72" s="35" t="str">
-        <f>IF(L72,L72/J72, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4151,7 +4148,7 @@
       <c r="K73" s="37"/>
       <c r="L73" s="34"/>
       <c r="M73" s="35" t="str">
-        <f>IF(L73,L73/J73, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4164,7 +4161,7 @@
       <c r="K74" s="37"/>
       <c r="L74" s="34"/>
       <c r="M74" s="35" t="str">
-        <f>IF(L74,L74/J74, "" )</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4177,7 +4174,7 @@
       <c r="K75" s="37"/>
       <c r="L75" s="34"/>
       <c r="M75" s="35" t="str">
-        <f>IF(L75,L75/J75, "" )</f>
+        <f t="shared" ref="M75:M138" si="1">IF(L75,L75/J75, "" )</f>
         <v/>
       </c>
     </row>
@@ -4190,7 +4187,7 @@
       <c r="K76" s="37"/>
       <c r="L76" s="34"/>
       <c r="M76" s="35" t="str">
-        <f>IF(L76,L76/J76, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4203,7 +4200,7 @@
       <c r="K77" s="37"/>
       <c r="L77" s="34"/>
       <c r="M77" s="35" t="str">
-        <f>IF(L77,L77/J77, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4216,7 +4213,7 @@
       <c r="K78" s="37"/>
       <c r="L78" s="34"/>
       <c r="M78" s="35" t="str">
-        <f>IF(L78,L78/J78, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4229,7 +4226,7 @@
       <c r="K79" s="37"/>
       <c r="L79" s="34"/>
       <c r="M79" s="35" t="str">
-        <f>IF(L79,L79/J79, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4242,7 +4239,7 @@
       <c r="K80" s="37"/>
       <c r="L80" s="34"/>
       <c r="M80" s="35" t="str">
-        <f>IF(L80,L80/J80, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4255,7 +4252,7 @@
       <c r="K81" s="37"/>
       <c r="L81" s="34"/>
       <c r="M81" s="35" t="str">
-        <f>IF(L81,L81/J81, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4268,7 +4265,7 @@
       <c r="K82" s="37"/>
       <c r="L82" s="34"/>
       <c r="M82" s="35" t="str">
-        <f>IF(L82,L82/J82, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4281,7 +4278,7 @@
       <c r="K83" s="37"/>
       <c r="L83" s="34"/>
       <c r="M83" s="35" t="str">
-        <f>IF(L83,L83/J83, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4294,7 +4291,7 @@
       <c r="K84" s="37"/>
       <c r="L84" s="34"/>
       <c r="M84" s="35" t="str">
-        <f>IF(L84,L84/J84, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4307,7 +4304,7 @@
       <c r="K85" s="37"/>
       <c r="L85" s="34"/>
       <c r="M85" s="35" t="str">
-        <f>IF(L85,L85/J85, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4320,7 +4317,7 @@
       <c r="K86" s="37"/>
       <c r="L86" s="34"/>
       <c r="M86" s="35" t="str">
-        <f>IF(L86,L86/J86, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4333,7 +4330,7 @@
       <c r="K87" s="37"/>
       <c r="L87" s="34"/>
       <c r="M87" s="35" t="str">
-        <f>IF(L87,L87/J87, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4346,7 +4343,7 @@
       <c r="K88" s="37"/>
       <c r="L88" s="34"/>
       <c r="M88" s="35" t="str">
-        <f>IF(L88,L88/J88, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4359,7 +4356,7 @@
       <c r="K89" s="37"/>
       <c r="L89" s="34"/>
       <c r="M89" s="35" t="str">
-        <f>IF(L89,L89/J89, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4372,7 +4369,7 @@
       <c r="K90" s="37"/>
       <c r="L90" s="34"/>
       <c r="M90" s="35" t="str">
-        <f>IF(L90,L90/J90, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4385,7 +4382,7 @@
       <c r="K91" s="37"/>
       <c r="L91" s="34"/>
       <c r="M91" s="35" t="str">
-        <f>IF(L91,L91/J91, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4398,7 +4395,7 @@
       <c r="K92" s="37"/>
       <c r="L92" s="34"/>
       <c r="M92" s="35" t="str">
-        <f>IF(L92,L92/J92, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4411,7 +4408,7 @@
       <c r="K93" s="37"/>
       <c r="L93" s="34"/>
       <c r="M93" s="35" t="str">
-        <f>IF(L93,L93/J93, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4424,7 +4421,7 @@
       <c r="K94" s="37"/>
       <c r="L94" s="34"/>
       <c r="M94" s="35" t="str">
-        <f>IF(L94,L94/J94, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4437,7 +4434,7 @@
       <c r="K95" s="37"/>
       <c r="L95" s="34"/>
       <c r="M95" s="35" t="str">
-        <f>IF(L95,L95/J95, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4450,7 +4447,7 @@
       <c r="K96" s="37"/>
       <c r="L96" s="34"/>
       <c r="M96" s="35" t="str">
-        <f>IF(L96,L96/J96, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4463,7 +4460,7 @@
       <c r="K97" s="37"/>
       <c r="L97" s="34"/>
       <c r="M97" s="35" t="str">
-        <f>IF(L97,L97/J97, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4476,7 +4473,7 @@
       <c r="K98" s="37"/>
       <c r="L98" s="34"/>
       <c r="M98" s="35" t="str">
-        <f>IF(L98,L98/J98, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4489,7 +4486,7 @@
       <c r="K99" s="37"/>
       <c r="L99" s="34"/>
       <c r="M99" s="35" t="str">
-        <f>IF(L99,L99/J99, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4502,7 +4499,7 @@
       <c r="K100" s="37"/>
       <c r="L100" s="34"/>
       <c r="M100" s="35" t="str">
-        <f>IF(L100,L100/J100, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4515,7 +4512,7 @@
       <c r="K101" s="37"/>
       <c r="L101" s="34"/>
       <c r="M101" s="35" t="str">
-        <f>IF(L101,L101/J101, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4528,7 +4525,7 @@
       <c r="K102" s="37"/>
       <c r="L102" s="34"/>
       <c r="M102" s="35" t="str">
-        <f>IF(L102,L102/J102, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4541,7 +4538,7 @@
       <c r="K103" s="37"/>
       <c r="L103" s="34"/>
       <c r="M103" s="35" t="str">
-        <f>IF(L103,L103/J103, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4554,7 +4551,7 @@
       <c r="K104" s="37"/>
       <c r="L104" s="34"/>
       <c r="M104" s="35" t="str">
-        <f>IF(L104,L104/J104, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4567,7 +4564,7 @@
       <c r="K105" s="37"/>
       <c r="L105" s="34"/>
       <c r="M105" s="35" t="str">
-        <f>IF(L105,L105/J105, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4580,7 +4577,7 @@
       <c r="K106" s="37"/>
       <c r="L106" s="34"/>
       <c r="M106" s="35" t="str">
-        <f>IF(L106,L106/J106, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4593,7 +4590,7 @@
       <c r="K107" s="37"/>
       <c r="L107" s="34"/>
       <c r="M107" s="35" t="str">
-        <f>IF(L107,L107/J107, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4606,7 +4603,7 @@
       <c r="K108" s="37"/>
       <c r="L108" s="34"/>
       <c r="M108" s="35" t="str">
-        <f>IF(L108,L108/J108, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4619,7 +4616,7 @@
       <c r="K109" s="37"/>
       <c r="L109" s="34"/>
       <c r="M109" s="35" t="str">
-        <f>IF(L109,L109/J109, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4632,7 +4629,7 @@
       <c r="K110" s="37"/>
       <c r="L110" s="34"/>
       <c r="M110" s="35" t="str">
-        <f>IF(L110,L110/J110, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4645,7 +4642,7 @@
       <c r="K111" s="37"/>
       <c r="L111" s="34"/>
       <c r="M111" s="35" t="str">
-        <f>IF(L111,L111/J111, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4658,7 +4655,7 @@
       <c r="K112" s="37"/>
       <c r="L112" s="34"/>
       <c r="M112" s="35" t="str">
-        <f>IF(L112,L112/J112, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4671,7 +4668,7 @@
       <c r="K113" s="37"/>
       <c r="L113" s="34"/>
       <c r="M113" s="35" t="str">
-        <f>IF(L113,L113/J113, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4684,7 +4681,7 @@
       <c r="K114" s="37"/>
       <c r="L114" s="34"/>
       <c r="M114" s="35" t="str">
-        <f>IF(L114,L114/J114, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4697,7 +4694,7 @@
       <c r="K115" s="37"/>
       <c r="L115" s="34"/>
       <c r="M115" s="35" t="str">
-        <f>IF(L115,L115/J115, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4710,7 +4707,7 @@
       <c r="K116" s="37"/>
       <c r="L116" s="34"/>
       <c r="M116" s="35" t="str">
-        <f>IF(L116,L116/J116, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4723,7 +4720,7 @@
       <c r="K117" s="37"/>
       <c r="L117" s="34"/>
       <c r="M117" s="35" t="str">
-        <f>IF(L117,L117/J117, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4736,7 +4733,7 @@
       <c r="K118" s="37"/>
       <c r="L118" s="34"/>
       <c r="M118" s="35" t="str">
-        <f>IF(L118,L118/J118, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4749,7 +4746,7 @@
       <c r="K119" s="37"/>
       <c r="L119" s="34"/>
       <c r="M119" s="35" t="str">
-        <f>IF(L119,L119/J119, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4762,7 +4759,7 @@
       <c r="K120" s="37"/>
       <c r="L120" s="34"/>
       <c r="M120" s="35" t="str">
-        <f>IF(L120,L120/J120, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4775,7 +4772,7 @@
       <c r="K121" s="37"/>
       <c r="L121" s="34"/>
       <c r="M121" s="35" t="str">
-        <f>IF(L121,L121/J121, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4788,7 +4785,7 @@
       <c r="K122" s="37"/>
       <c r="L122" s="34"/>
       <c r="M122" s="35" t="str">
-        <f>IF(L122,L122/J122, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4801,7 +4798,7 @@
       <c r="K123" s="37"/>
       <c r="L123" s="34"/>
       <c r="M123" s="35" t="str">
-        <f>IF(L123,L123/J123, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4814,7 +4811,7 @@
       <c r="K124" s="37"/>
       <c r="L124" s="34"/>
       <c r="M124" s="35" t="str">
-        <f>IF(L124,L124/J124, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4827,7 +4824,7 @@
       <c r="K125" s="37"/>
       <c r="L125" s="34"/>
       <c r="M125" s="35" t="str">
-        <f>IF(L125,L125/J125, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4840,7 +4837,7 @@
       <c r="K126" s="37"/>
       <c r="L126" s="34"/>
       <c r="M126" s="35" t="str">
-        <f>IF(L126,L126/J126, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4853,7 +4850,7 @@
       <c r="K127" s="37"/>
       <c r="L127" s="34"/>
       <c r="M127" s="35" t="str">
-        <f>IF(L127,L127/J127, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4866,7 +4863,7 @@
       <c r="K128" s="37"/>
       <c r="L128" s="34"/>
       <c r="M128" s="35" t="str">
-        <f>IF(L128,L128/J128, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4879,7 +4876,7 @@
       <c r="K129" s="37"/>
       <c r="L129" s="34"/>
       <c r="M129" s="35" t="str">
-        <f>IF(L129,L129/J129, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4892,7 +4889,7 @@
       <c r="K130" s="37"/>
       <c r="L130" s="34"/>
       <c r="M130" s="35" t="str">
-        <f>IF(L130,L130/J130, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4905,7 +4902,7 @@
       <c r="K131" s="37"/>
       <c r="L131" s="34"/>
       <c r="M131" s="35" t="str">
-        <f>IF(L131,L131/J131, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4918,7 +4915,7 @@
       <c r="K132" s="37"/>
       <c r="L132" s="34"/>
       <c r="M132" s="35" t="str">
-        <f>IF(L132,L132/J132, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4931,7 +4928,7 @@
       <c r="K133" s="37"/>
       <c r="L133" s="34"/>
       <c r="M133" s="35" t="str">
-        <f>IF(L133,L133/J133, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4944,7 +4941,7 @@
       <c r="K134" s="37"/>
       <c r="L134" s="34"/>
       <c r="M134" s="35" t="str">
-        <f>IF(L134,L134/J134, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4957,7 +4954,7 @@
       <c r="K135" s="37"/>
       <c r="L135" s="34"/>
       <c r="M135" s="35" t="str">
-        <f>IF(L135,L135/J135, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4970,7 +4967,7 @@
       <c r="K136" s="37"/>
       <c r="L136" s="34"/>
       <c r="M136" s="35" t="str">
-        <f>IF(L136,L136/J136, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4983,7 +4980,7 @@
       <c r="K137" s="37"/>
       <c r="L137" s="34"/>
       <c r="M137" s="35" t="str">
-        <f>IF(L137,L137/J137, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4996,7 +4993,7 @@
       <c r="K138" s="37"/>
       <c r="L138" s="34"/>
       <c r="M138" s="35" t="str">
-        <f>IF(L138,L138/J138, "" )</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5009,7 +5006,7 @@
       <c r="K139" s="37"/>
       <c r="L139" s="34"/>
       <c r="M139" s="35" t="str">
-        <f>IF(L139,L139/J139, "" )</f>
+        <f t="shared" ref="M139:M202" si="2">IF(L139,L139/J139, "" )</f>
         <v/>
       </c>
     </row>
@@ -5022,7 +5019,7 @@
       <c r="K140" s="37"/>
       <c r="L140" s="34"/>
       <c r="M140" s="35" t="str">
-        <f>IF(L140,L140/J140, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5035,7 +5032,7 @@
       <c r="K141" s="37"/>
       <c r="L141" s="34"/>
       <c r="M141" s="35" t="str">
-        <f>IF(L141,L141/J141, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5048,7 +5045,7 @@
       <c r="K142" s="37"/>
       <c r="L142" s="34"/>
       <c r="M142" s="35" t="str">
-        <f>IF(L142,L142/J142, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5061,7 +5058,7 @@
       <c r="K143" s="37"/>
       <c r="L143" s="34"/>
       <c r="M143" s="35" t="str">
-        <f>IF(L143,L143/J143, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5074,7 +5071,7 @@
       <c r="K144" s="37"/>
       <c r="L144" s="34"/>
       <c r="M144" s="35" t="str">
-        <f>IF(L144,L144/J144, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5087,7 +5084,7 @@
       <c r="K145" s="37"/>
       <c r="L145" s="34"/>
       <c r="M145" s="35" t="str">
-        <f>IF(L145,L145/J145, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5100,7 +5097,7 @@
       <c r="K146" s="37"/>
       <c r="L146" s="34"/>
       <c r="M146" s="35" t="str">
-        <f>IF(L146,L146/J146, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5113,7 +5110,7 @@
       <c r="K147" s="37"/>
       <c r="L147" s="34"/>
       <c r="M147" s="35" t="str">
-        <f>IF(L147,L147/J147, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5126,7 +5123,7 @@
       <c r="K148" s="37"/>
       <c r="L148" s="34"/>
       <c r="M148" s="35" t="str">
-        <f>IF(L148,L148/J148, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5139,7 +5136,7 @@
       <c r="K149" s="37"/>
       <c r="L149" s="34"/>
       <c r="M149" s="35" t="str">
-        <f>IF(L149,L149/J149, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5152,7 +5149,7 @@
       <c r="K150" s="37"/>
       <c r="L150" s="34"/>
       <c r="M150" s="35" t="str">
-        <f>IF(L150,L150/J150, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5165,7 +5162,7 @@
       <c r="K151" s="37"/>
       <c r="L151" s="34"/>
       <c r="M151" s="35" t="str">
-        <f>IF(L151,L151/J151, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5178,7 +5175,7 @@
       <c r="K152" s="37"/>
       <c r="L152" s="34"/>
       <c r="M152" s="35" t="str">
-        <f>IF(L152,L152/J152, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5191,7 +5188,7 @@
       <c r="K153" s="37"/>
       <c r="L153" s="34"/>
       <c r="M153" s="35" t="str">
-        <f>IF(L153,L153/J153, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5204,7 +5201,7 @@
       <c r="K154" s="37"/>
       <c r="L154" s="34"/>
       <c r="M154" s="35" t="str">
-        <f>IF(L154,L154/J154, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5217,7 +5214,7 @@
       <c r="K155" s="37"/>
       <c r="L155" s="34"/>
       <c r="M155" s="35" t="str">
-        <f>IF(L155,L155/J155, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5230,7 +5227,7 @@
       <c r="K156" s="37"/>
       <c r="L156" s="34"/>
       <c r="M156" s="35" t="str">
-        <f>IF(L156,L156/J156, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5243,7 +5240,7 @@
       <c r="K157" s="37"/>
       <c r="L157" s="34"/>
       <c r="M157" s="35" t="str">
-        <f>IF(L157,L157/J157, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5256,7 +5253,7 @@
       <c r="K158" s="37"/>
       <c r="L158" s="34"/>
       <c r="M158" s="35" t="str">
-        <f>IF(L158,L158/J158, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5269,7 +5266,7 @@
       <c r="K159" s="37"/>
       <c r="L159" s="34"/>
       <c r="M159" s="35" t="str">
-        <f>IF(L159,L159/J159, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5282,7 +5279,7 @@
       <c r="K160" s="37"/>
       <c r="L160" s="34"/>
       <c r="M160" s="35" t="str">
-        <f>IF(L160,L160/J160, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5295,7 +5292,7 @@
       <c r="K161" s="37"/>
       <c r="L161" s="34"/>
       <c r="M161" s="35" t="str">
-        <f>IF(L161,L161/J161, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5308,7 +5305,7 @@
       <c r="K162" s="37"/>
       <c r="L162" s="34"/>
       <c r="M162" s="35" t="str">
-        <f>IF(L162,L162/J162, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5321,7 +5318,7 @@
       <c r="K163" s="37"/>
       <c r="L163" s="34"/>
       <c r="M163" s="35" t="str">
-        <f>IF(L163,L163/J163, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5334,7 +5331,7 @@
       <c r="K164" s="37"/>
       <c r="L164" s="34"/>
       <c r="M164" s="35" t="str">
-        <f>IF(L164,L164/J164, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5347,7 +5344,7 @@
       <c r="K165" s="37"/>
       <c r="L165" s="34"/>
       <c r="M165" s="35" t="str">
-        <f>IF(L165,L165/J165, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5360,7 +5357,7 @@
       <c r="K166" s="37"/>
       <c r="L166" s="34"/>
       <c r="M166" s="35" t="str">
-        <f>IF(L166,L166/J166, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5373,7 +5370,7 @@
       <c r="K167" s="37"/>
       <c r="L167" s="34"/>
       <c r="M167" s="35" t="str">
-        <f>IF(L167,L167/J167, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5386,7 +5383,7 @@
       <c r="K168" s="37"/>
       <c r="L168" s="34"/>
       <c r="M168" s="35" t="str">
-        <f>IF(L168,L168/J168, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5399,7 +5396,7 @@
       <c r="K169" s="37"/>
       <c r="L169" s="34"/>
       <c r="M169" s="35" t="str">
-        <f>IF(L169,L169/J169, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5412,7 +5409,7 @@
       <c r="K170" s="37"/>
       <c r="L170" s="34"/>
       <c r="M170" s="35" t="str">
-        <f>IF(L170,L170/J170, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5425,7 +5422,7 @@
       <c r="K171" s="37"/>
       <c r="L171" s="34"/>
       <c r="M171" s="35" t="str">
-        <f>IF(L171,L171/J171, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5438,7 +5435,7 @@
       <c r="K172" s="37"/>
       <c r="L172" s="34"/>
       <c r="M172" s="35" t="str">
-        <f>IF(L172,L172/J172, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5451,7 +5448,7 @@
       <c r="K173" s="37"/>
       <c r="L173" s="34"/>
       <c r="M173" s="35" t="str">
-        <f>IF(L173,L173/J173, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5464,7 +5461,7 @@
       <c r="K174" s="37"/>
       <c r="L174" s="34"/>
       <c r="M174" s="35" t="str">
-        <f>IF(L174,L174/J174, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5477,7 +5474,7 @@
       <c r="K175" s="37"/>
       <c r="L175" s="34"/>
       <c r="M175" s="35" t="str">
-        <f>IF(L175,L175/J175, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5490,7 +5487,7 @@
       <c r="K176" s="37"/>
       <c r="L176" s="34"/>
       <c r="M176" s="35" t="str">
-        <f>IF(L176,L176/J176, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5503,7 +5500,7 @@
       <c r="K177" s="37"/>
       <c r="L177" s="34"/>
       <c r="M177" s="35" t="str">
-        <f>IF(L177,L177/J177, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5516,7 +5513,7 @@
       <c r="K178" s="37"/>
       <c r="L178" s="34"/>
       <c r="M178" s="35" t="str">
-        <f>IF(L178,L178/J178, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5529,7 +5526,7 @@
       <c r="K179" s="37"/>
       <c r="L179" s="34"/>
       <c r="M179" s="35" t="str">
-        <f>IF(L179,L179/J179, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5542,7 +5539,7 @@
       <c r="K180" s="37"/>
       <c r="L180" s="34"/>
       <c r="M180" s="35" t="str">
-        <f>IF(L180,L180/J180, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5555,7 +5552,7 @@
       <c r="K181" s="37"/>
       <c r="L181" s="34"/>
       <c r="M181" s="35" t="str">
-        <f>IF(L181,L181/J181, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5568,7 +5565,7 @@
       <c r="K182" s="37"/>
       <c r="L182" s="34"/>
       <c r="M182" s="35" t="str">
-        <f>IF(L182,L182/J182, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5581,7 +5578,7 @@
       <c r="K183" s="37"/>
       <c r="L183" s="34"/>
       <c r="M183" s="35" t="str">
-        <f>IF(L183,L183/J183, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5594,7 +5591,7 @@
       <c r="K184" s="37"/>
       <c r="L184" s="34"/>
       <c r="M184" s="35" t="str">
-        <f>IF(L184,L184/J184, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5607,7 +5604,7 @@
       <c r="K185" s="37"/>
       <c r="L185" s="34"/>
       <c r="M185" s="35" t="str">
-        <f>IF(L185,L185/J185, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5620,7 +5617,7 @@
       <c r="K186" s="37"/>
       <c r="L186" s="34"/>
       <c r="M186" s="35" t="str">
-        <f>IF(L186,L186/J186, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5633,7 +5630,7 @@
       <c r="K187" s="37"/>
       <c r="L187" s="34"/>
       <c r="M187" s="35" t="str">
-        <f>IF(L187,L187/J187, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5646,7 +5643,7 @@
       <c r="K188" s="37"/>
       <c r="L188" s="34"/>
       <c r="M188" s="35" t="str">
-        <f>IF(L188,L188/J188, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5659,7 +5656,7 @@
       <c r="K189" s="37"/>
       <c r="L189" s="34"/>
       <c r="M189" s="35" t="str">
-        <f>IF(L189,L189/J189, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5672,7 +5669,7 @@
       <c r="K190" s="37"/>
       <c r="L190" s="34"/>
       <c r="M190" s="35" t="str">
-        <f>IF(L190,L190/J190, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5685,7 +5682,7 @@
       <c r="K191" s="37"/>
       <c r="L191" s="34"/>
       <c r="M191" s="35" t="str">
-        <f>IF(L191,L191/J191, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5698,7 +5695,7 @@
       <c r="K192" s="37"/>
       <c r="L192" s="34"/>
       <c r="M192" s="35" t="str">
-        <f>IF(L192,L192/J192, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5711,7 +5708,7 @@
       <c r="K193" s="37"/>
       <c r="L193" s="34"/>
       <c r="M193" s="35" t="str">
-        <f>IF(L193,L193/J193, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5724,7 +5721,7 @@
       <c r="K194" s="37"/>
       <c r="L194" s="34"/>
       <c r="M194" s="35" t="str">
-        <f>IF(L194,L194/J194, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5737,7 +5734,7 @@
       <c r="K195" s="37"/>
       <c r="L195" s="34"/>
       <c r="M195" s="35" t="str">
-        <f>IF(L195,L195/J195, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5750,7 +5747,7 @@
       <c r="K196" s="37"/>
       <c r="L196" s="34"/>
       <c r="M196" s="35" t="str">
-        <f>IF(L196,L196/J196, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5763,7 +5760,7 @@
       <c r="K197" s="37"/>
       <c r="L197" s="34"/>
       <c r="M197" s="35" t="str">
-        <f>IF(L197,L197/J197, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5776,7 +5773,7 @@
       <c r="K198" s="37"/>
       <c r="L198" s="34"/>
       <c r="M198" s="35" t="str">
-        <f>IF(L198,L198/J198, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5789,7 +5786,7 @@
       <c r="K199" s="37"/>
       <c r="L199" s="34"/>
       <c r="M199" s="35" t="str">
-        <f>IF(L199,L199/J199, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5802,7 +5799,7 @@
       <c r="K200" s="37"/>
       <c r="L200" s="34"/>
       <c r="M200" s="35" t="str">
-        <f>IF(L200,L200/J200, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5815,7 +5812,7 @@
       <c r="K201" s="37"/>
       <c r="L201" s="34"/>
       <c r="M201" s="35" t="str">
-        <f>IF(L201,L201/J201, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5828,7 +5825,7 @@
       <c r="K202" s="37"/>
       <c r="L202" s="34"/>
       <c r="M202" s="35" t="str">
-        <f>IF(L202,L202/J202, "" )</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5841,7 +5838,7 @@
       <c r="K203" s="37"/>
       <c r="L203" s="34"/>
       <c r="M203" s="35" t="str">
-        <f>IF(L203,L203/J203, "" )</f>
+        <f t="shared" ref="M203:M266" si="3">IF(L203,L203/J203, "" )</f>
         <v/>
       </c>
     </row>
@@ -5854,7 +5851,7 @@
       <c r="K204" s="37"/>
       <c r="L204" s="34"/>
       <c r="M204" s="35" t="str">
-        <f>IF(L204,L204/J204, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5867,7 +5864,7 @@
       <c r="K205" s="37"/>
       <c r="L205" s="34"/>
       <c r="M205" s="35" t="str">
-        <f>IF(L205,L205/J205, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5880,7 +5877,7 @@
       <c r="K206" s="37"/>
       <c r="L206" s="34"/>
       <c r="M206" s="35" t="str">
-        <f>IF(L206,L206/J206, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5893,7 +5890,7 @@
       <c r="K207" s="37"/>
       <c r="L207" s="34"/>
       <c r="M207" s="35" t="str">
-        <f>IF(L207,L207/J207, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5906,7 +5903,7 @@
       <c r="K208" s="37"/>
       <c r="L208" s="34"/>
       <c r="M208" s="35" t="str">
-        <f>IF(L208,L208/J208, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5919,7 +5916,7 @@
       <c r="K209" s="37"/>
       <c r="L209" s="34"/>
       <c r="M209" s="35" t="str">
-        <f>IF(L209,L209/J209, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5932,7 +5929,7 @@
       <c r="K210" s="37"/>
       <c r="L210" s="34"/>
       <c r="M210" s="35" t="str">
-        <f>IF(L210,L210/J210, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5945,7 +5942,7 @@
       <c r="K211" s="37"/>
       <c r="L211" s="34"/>
       <c r="M211" s="35" t="str">
-        <f>IF(L211,L211/J211, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5958,7 +5955,7 @@
       <c r="K212" s="37"/>
       <c r="L212" s="34"/>
       <c r="M212" s="35" t="str">
-        <f>IF(L212,L212/J212, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5971,7 +5968,7 @@
       <c r="K213" s="37"/>
       <c r="L213" s="34"/>
       <c r="M213" s="35" t="str">
-        <f>IF(L213,L213/J213, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5984,7 +5981,7 @@
       <c r="K214" s="37"/>
       <c r="L214" s="34"/>
       <c r="M214" s="35" t="str">
-        <f>IF(L214,L214/J214, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5997,7 +5994,7 @@
       <c r="K215" s="37"/>
       <c r="L215" s="34"/>
       <c r="M215" s="35" t="str">
-        <f>IF(L215,L215/J215, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6010,7 +6007,7 @@
       <c r="K216" s="37"/>
       <c r="L216" s="34"/>
       <c r="M216" s="35" t="str">
-        <f>IF(L216,L216/J216, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6023,7 +6020,7 @@
       <c r="K217" s="37"/>
       <c r="L217" s="34"/>
       <c r="M217" s="35" t="str">
-        <f>IF(L217,L217/J217, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6036,7 +6033,7 @@
       <c r="K218" s="37"/>
       <c r="L218" s="34"/>
       <c r="M218" s="35" t="str">
-        <f>IF(L218,L218/J218, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6049,7 +6046,7 @@
       <c r="K219" s="37"/>
       <c r="L219" s="34"/>
       <c r="M219" s="35" t="str">
-        <f>IF(L219,L219/J219, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6062,7 +6059,7 @@
       <c r="K220" s="37"/>
       <c r="L220" s="34"/>
       <c r="M220" s="35" t="str">
-        <f>IF(L220,L220/J220, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6075,7 +6072,7 @@
       <c r="K221" s="37"/>
       <c r="L221" s="34"/>
       <c r="M221" s="35" t="str">
-        <f>IF(L221,L221/J221, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6088,7 +6085,7 @@
       <c r="K222" s="37"/>
       <c r="L222" s="34"/>
       <c r="M222" s="35" t="str">
-        <f>IF(L222,L222/J222, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6101,7 +6098,7 @@
       <c r="K223" s="37"/>
       <c r="L223" s="34"/>
       <c r="M223" s="35" t="str">
-        <f>IF(L223,L223/J223, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6114,7 +6111,7 @@
       <c r="K224" s="37"/>
       <c r="L224" s="34"/>
       <c r="M224" s="35" t="str">
-        <f>IF(L224,L224/J224, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6127,7 +6124,7 @@
       <c r="K225" s="37"/>
       <c r="L225" s="34"/>
       <c r="M225" s="35" t="str">
-        <f>IF(L225,L225/J225, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6140,7 +6137,7 @@
       <c r="K226" s="37"/>
       <c r="L226" s="34"/>
       <c r="M226" s="35" t="str">
-        <f>IF(L226,L226/J226, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6153,7 +6150,7 @@
       <c r="K227" s="37"/>
       <c r="L227" s="34"/>
       <c r="M227" s="35" t="str">
-        <f>IF(L227,L227/J227, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6166,7 +6163,7 @@
       <c r="K228" s="37"/>
       <c r="L228" s="34"/>
       <c r="M228" s="35" t="str">
-        <f>IF(L228,L228/J228, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6179,7 +6176,7 @@
       <c r="K229" s="37"/>
       <c r="L229" s="34"/>
       <c r="M229" s="35" t="str">
-        <f>IF(L229,L229/J229, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6192,7 +6189,7 @@
       <c r="K230" s="37"/>
       <c r="L230" s="34"/>
       <c r="M230" s="35" t="str">
-        <f>IF(L230,L230/J230, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6205,7 +6202,7 @@
       <c r="K231" s="37"/>
       <c r="L231" s="34"/>
       <c r="M231" s="35" t="str">
-        <f>IF(L231,L231/J231, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6218,7 +6215,7 @@
       <c r="K232" s="37"/>
       <c r="L232" s="34"/>
       <c r="M232" s="35" t="str">
-        <f>IF(L232,L232/J232, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6231,7 +6228,7 @@
       <c r="K233" s="37"/>
       <c r="L233" s="34"/>
       <c r="M233" s="35" t="str">
-        <f>IF(L233,L233/J233, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6244,7 +6241,7 @@
       <c r="K234" s="37"/>
       <c r="L234" s="34"/>
       <c r="M234" s="35" t="str">
-        <f>IF(L234,L234/J234, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6257,7 +6254,7 @@
       <c r="K235" s="37"/>
       <c r="L235" s="34"/>
       <c r="M235" s="35" t="str">
-        <f>IF(L235,L235/J235, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6270,7 +6267,7 @@
       <c r="K236" s="37"/>
       <c r="L236" s="34"/>
       <c r="M236" s="35" t="str">
-        <f>IF(L236,L236/J236, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6283,7 +6280,7 @@
       <c r="K237" s="37"/>
       <c r="L237" s="34"/>
       <c r="M237" s="35" t="str">
-        <f>IF(L237,L237/J237, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6296,7 +6293,7 @@
       <c r="K238" s="37"/>
       <c r="L238" s="34"/>
       <c r="M238" s="35" t="str">
-        <f>IF(L238,L238/J238, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6309,7 +6306,7 @@
       <c r="K239" s="37"/>
       <c r="L239" s="34"/>
       <c r="M239" s="35" t="str">
-        <f>IF(L239,L239/J239, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6322,7 +6319,7 @@
       <c r="K240" s="37"/>
       <c r="L240" s="34"/>
       <c r="M240" s="35" t="str">
-        <f>IF(L240,L240/J240, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6335,7 +6332,7 @@
       <c r="K241" s="37"/>
       <c r="L241" s="34"/>
       <c r="M241" s="35" t="str">
-        <f>IF(L241,L241/J241, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6348,7 +6345,7 @@
       <c r="K242" s="37"/>
       <c r="L242" s="34"/>
       <c r="M242" s="35" t="str">
-        <f>IF(L242,L242/J242, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6361,7 +6358,7 @@
       <c r="K243" s="37"/>
       <c r="L243" s="34"/>
       <c r="M243" s="35" t="str">
-        <f>IF(L243,L243/J243, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6374,7 +6371,7 @@
       <c r="K244" s="37"/>
       <c r="L244" s="34"/>
       <c r="M244" s="35" t="str">
-        <f>IF(L244,L244/J244, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6387,7 +6384,7 @@
       <c r="K245" s="37"/>
       <c r="L245" s="34"/>
       <c r="M245" s="35" t="str">
-        <f>IF(L245,L245/J245, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6400,7 +6397,7 @@
       <c r="K246" s="37"/>
       <c r="L246" s="34"/>
       <c r="M246" s="35" t="str">
-        <f>IF(L246,L246/J246, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6413,7 +6410,7 @@
       <c r="K247" s="37"/>
       <c r="L247" s="34"/>
       <c r="M247" s="35" t="str">
-        <f>IF(L247,L247/J247, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6426,7 +6423,7 @@
       <c r="K248" s="37"/>
       <c r="L248" s="34"/>
       <c r="M248" s="35" t="str">
-        <f>IF(L248,L248/J248, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6439,7 +6436,7 @@
       <c r="K249" s="37"/>
       <c r="L249" s="34"/>
       <c r="M249" s="35" t="str">
-        <f>IF(L249,L249/J249, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6452,7 +6449,7 @@
       <c r="K250" s="37"/>
       <c r="L250" s="34"/>
       <c r="M250" s="35" t="str">
-        <f>IF(L250,L250/J250, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6465,7 +6462,7 @@
       <c r="K251" s="37"/>
       <c r="L251" s="34"/>
       <c r="M251" s="35" t="str">
-        <f>IF(L251,L251/J251, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6478,7 +6475,7 @@
       <c r="K252" s="37"/>
       <c r="L252" s="34"/>
       <c r="M252" s="35" t="str">
-        <f>IF(L252,L252/J252, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6491,7 +6488,7 @@
       <c r="K253" s="37"/>
       <c r="L253" s="34"/>
       <c r="M253" s="35" t="str">
-        <f>IF(L253,L253/J253, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6504,7 +6501,7 @@
       <c r="K254" s="37"/>
       <c r="L254" s="34"/>
       <c r="M254" s="35" t="str">
-        <f>IF(L254,L254/J254, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6517,7 +6514,7 @@
       <c r="K255" s="37"/>
       <c r="L255" s="34"/>
       <c r="M255" s="35" t="str">
-        <f>IF(L255,L255/J255, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6530,7 +6527,7 @@
       <c r="K256" s="37"/>
       <c r="L256" s="34"/>
       <c r="M256" s="35" t="str">
-        <f>IF(L256,L256/J256, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6543,7 +6540,7 @@
       <c r="K257" s="37"/>
       <c r="L257" s="34"/>
       <c r="M257" s="35" t="str">
-        <f>IF(L257,L257/J257, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6556,7 +6553,7 @@
       <c r="K258" s="37"/>
       <c r="L258" s="34"/>
       <c r="M258" s="35" t="str">
-        <f>IF(L258,L258/J258, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6569,7 +6566,7 @@
       <c r="K259" s="37"/>
       <c r="L259" s="34"/>
       <c r="M259" s="35" t="str">
-        <f>IF(L259,L259/J259, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6582,7 +6579,7 @@
       <c r="K260" s="37"/>
       <c r="L260" s="34"/>
       <c r="M260" s="35" t="str">
-        <f>IF(L260,L260/J260, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6595,7 +6592,7 @@
       <c r="K261" s="37"/>
       <c r="L261" s="34"/>
       <c r="M261" s="35" t="str">
-        <f>IF(L261,L261/J261, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6608,7 +6605,7 @@
       <c r="K262" s="37"/>
       <c r="L262" s="34"/>
       <c r="M262" s="35" t="str">
-        <f>IF(L262,L262/J262, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6621,7 +6618,7 @@
       <c r="K263" s="37"/>
       <c r="L263" s="34"/>
       <c r="M263" s="35" t="str">
-        <f>IF(L263,L263/J263, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6634,7 +6631,7 @@
       <c r="K264" s="37"/>
       <c r="L264" s="34"/>
       <c r="M264" s="35" t="str">
-        <f>IF(L264,L264/J264, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6647,7 +6644,7 @@
       <c r="K265" s="37"/>
       <c r="L265" s="34"/>
       <c r="M265" s="35" t="str">
-        <f>IF(L265,L265/J265, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6660,7 +6657,7 @@
       <c r="K266" s="37"/>
       <c r="L266" s="34"/>
       <c r="M266" s="35" t="str">
-        <f>IF(L266,L266/J266, "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6673,7 +6670,7 @@
       <c r="K267" s="37"/>
       <c r="L267" s="34"/>
       <c r="M267" s="35" t="str">
-        <f>IF(L267,L267/J267, "" )</f>
+        <f t="shared" ref="M267:M330" si="4">IF(L267,L267/J267, "" )</f>
         <v/>
       </c>
     </row>
@@ -6686,7 +6683,7 @@
       <c r="K268" s="37"/>
       <c r="L268" s="34"/>
       <c r="M268" s="35" t="str">
-        <f>IF(L268,L268/J268, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6699,7 +6696,7 @@
       <c r="K269" s="37"/>
       <c r="L269" s="34"/>
       <c r="M269" s="35" t="str">
-        <f>IF(L269,L269/J269, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6712,7 +6709,7 @@
       <c r="K270" s="37"/>
       <c r="L270" s="34"/>
       <c r="M270" s="35" t="str">
-        <f>IF(L270,L270/J270, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6725,7 +6722,7 @@
       <c r="K271" s="37"/>
       <c r="L271" s="34"/>
       <c r="M271" s="35" t="str">
-        <f>IF(L271,L271/J271, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6738,7 +6735,7 @@
       <c r="K272" s="37"/>
       <c r="L272" s="34"/>
       <c r="M272" s="35" t="str">
-        <f>IF(L272,L272/J272, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6751,7 +6748,7 @@
       <c r="K273" s="37"/>
       <c r="L273" s="34"/>
       <c r="M273" s="35" t="str">
-        <f>IF(L273,L273/J273, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6764,7 +6761,7 @@
       <c r="K274" s="37"/>
       <c r="L274" s="34"/>
       <c r="M274" s="35" t="str">
-        <f>IF(L274,L274/J274, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6777,7 +6774,7 @@
       <c r="K275" s="37"/>
       <c r="L275" s="34"/>
       <c r="M275" s="35" t="str">
-        <f>IF(L275,L275/J275, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6790,7 +6787,7 @@
       <c r="K276" s="37"/>
       <c r="L276" s="34"/>
       <c r="M276" s="35" t="str">
-        <f>IF(L276,L276/J276, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6803,7 +6800,7 @@
       <c r="K277" s="37"/>
       <c r="L277" s="34"/>
       <c r="M277" s="35" t="str">
-        <f>IF(L277,L277/J277, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6816,7 +6813,7 @@
       <c r="K278" s="37"/>
       <c r="L278" s="34"/>
       <c r="M278" s="35" t="str">
-        <f>IF(L278,L278/J278, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6829,7 +6826,7 @@
       <c r="K279" s="37"/>
       <c r="L279" s="34"/>
       <c r="M279" s="35" t="str">
-        <f>IF(L279,L279/J279, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6842,7 +6839,7 @@
       <c r="K280" s="37"/>
       <c r="L280" s="34"/>
       <c r="M280" s="35" t="str">
-        <f>IF(L280,L280/J280, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6855,7 +6852,7 @@
       <c r="K281" s="37"/>
       <c r="L281" s="34"/>
       <c r="M281" s="35" t="str">
-        <f>IF(L281,L281/J281, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6868,7 +6865,7 @@
       <c r="K282" s="37"/>
       <c r="L282" s="34"/>
       <c r="M282" s="35" t="str">
-        <f>IF(L282,L282/J282, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6881,7 +6878,7 @@
       <c r="K283" s="37"/>
       <c r="L283" s="34"/>
       <c r="M283" s="35" t="str">
-        <f>IF(L283,L283/J283, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6894,7 +6891,7 @@
       <c r="K284" s="37"/>
       <c r="L284" s="34"/>
       <c r="M284" s="35" t="str">
-        <f>IF(L284,L284/J284, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6907,7 +6904,7 @@
       <c r="K285" s="37"/>
       <c r="L285" s="34"/>
       <c r="M285" s="35" t="str">
-        <f>IF(L285,L285/J285, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6920,7 +6917,7 @@
       <c r="K286" s="37"/>
       <c r="L286" s="34"/>
       <c r="M286" s="35" t="str">
-        <f>IF(L286,L286/J286, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6933,7 +6930,7 @@
       <c r="K287" s="37"/>
       <c r="L287" s="34"/>
       <c r="M287" s="35" t="str">
-        <f>IF(L287,L287/J287, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6946,7 +6943,7 @@
       <c r="K288" s="37"/>
       <c r="L288" s="34"/>
       <c r="M288" s="35" t="str">
-        <f>IF(L288,L288/J288, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6959,7 +6956,7 @@
       <c r="K289" s="37"/>
       <c r="L289" s="34"/>
       <c r="M289" s="35" t="str">
-        <f>IF(L289,L289/J289, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6972,7 +6969,7 @@
       <c r="K290" s="37"/>
       <c r="L290" s="34"/>
       <c r="M290" s="35" t="str">
-        <f>IF(L290,L290/J290, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6985,7 +6982,7 @@
       <c r="K291" s="37"/>
       <c r="L291" s="34"/>
       <c r="M291" s="35" t="str">
-        <f>IF(L291,L291/J291, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6998,7 +6995,7 @@
       <c r="K292" s="37"/>
       <c r="L292" s="34"/>
       <c r="M292" s="35" t="str">
-        <f>IF(L292,L292/J292, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7011,7 +7008,7 @@
       <c r="K293" s="37"/>
       <c r="L293" s="34"/>
       <c r="M293" s="35" t="str">
-        <f>IF(L293,L293/J293, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7024,7 +7021,7 @@
       <c r="K294" s="37"/>
       <c r="L294" s="34"/>
       <c r="M294" s="35" t="str">
-        <f>IF(L294,L294/J294, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7037,7 +7034,7 @@
       <c r="K295" s="37"/>
       <c r="L295" s="34"/>
       <c r="M295" s="35" t="str">
-        <f>IF(L295,L295/J295, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7050,7 +7047,7 @@
       <c r="K296" s="37"/>
       <c r="L296" s="34"/>
       <c r="M296" s="35" t="str">
-        <f>IF(L296,L296/J296, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7063,7 +7060,7 @@
       <c r="K297" s="37"/>
       <c r="L297" s="34"/>
       <c r="M297" s="35" t="str">
-        <f>IF(L297,L297/J297, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7076,7 +7073,7 @@
       <c r="K298" s="37"/>
       <c r="L298" s="34"/>
       <c r="M298" s="35" t="str">
-        <f>IF(L298,L298/J298, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7089,7 +7086,7 @@
       <c r="K299" s="37"/>
       <c r="L299" s="34"/>
       <c r="M299" s="35" t="str">
-        <f>IF(L299,L299/J299, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7102,7 +7099,7 @@
       <c r="K300" s="37"/>
       <c r="L300" s="34"/>
       <c r="M300" s="35" t="str">
-        <f>IF(L300,L300/J300, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7115,7 +7112,7 @@
       <c r="K301" s="37"/>
       <c r="L301" s="34"/>
       <c r="M301" s="35" t="str">
-        <f>IF(L301,L301/J301, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7128,7 +7125,7 @@
       <c r="K302" s="37"/>
       <c r="L302" s="34"/>
       <c r="M302" s="35" t="str">
-        <f>IF(L302,L302/J302, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7141,7 +7138,7 @@
       <c r="K303" s="37"/>
       <c r="L303" s="34"/>
       <c r="M303" s="35" t="str">
-        <f>IF(L303,L303/J303, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7154,7 +7151,7 @@
       <c r="K304" s="37"/>
       <c r="L304" s="34"/>
       <c r="M304" s="35" t="str">
-        <f>IF(L304,L304/J304, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7167,7 +7164,7 @@
       <c r="K305" s="37"/>
       <c r="L305" s="34"/>
       <c r="M305" s="35" t="str">
-        <f>IF(L305,L305/J305, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7180,7 +7177,7 @@
       <c r="K306" s="37"/>
       <c r="L306" s="34"/>
       <c r="M306" s="35" t="str">
-        <f>IF(L306,L306/J306, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7193,7 +7190,7 @@
       <c r="K307" s="37"/>
       <c r="L307" s="34"/>
       <c r="M307" s="35" t="str">
-        <f>IF(L307,L307/J307, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7206,7 +7203,7 @@
       <c r="K308" s="37"/>
       <c r="L308" s="34"/>
       <c r="M308" s="35" t="str">
-        <f>IF(L308,L308/J308, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7219,7 +7216,7 @@
       <c r="K309" s="37"/>
       <c r="L309" s="34"/>
       <c r="M309" s="35" t="str">
-        <f>IF(L309,L309/J309, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7232,7 +7229,7 @@
       <c r="K310" s="37"/>
       <c r="L310" s="34"/>
       <c r="M310" s="35" t="str">
-        <f>IF(L310,L310/J310, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7245,7 +7242,7 @@
       <c r="K311" s="37"/>
       <c r="L311" s="34"/>
       <c r="M311" s="35" t="str">
-        <f>IF(L311,L311/J311, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7258,7 +7255,7 @@
       <c r="K312" s="37"/>
       <c r="L312" s="34"/>
       <c r="M312" s="35" t="str">
-        <f>IF(L312,L312/J312, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7271,7 +7268,7 @@
       <c r="K313" s="37"/>
       <c r="L313" s="34"/>
       <c r="M313" s="35" t="str">
-        <f>IF(L313,L313/J313, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7284,7 +7281,7 @@
       <c r="K314" s="37"/>
       <c r="L314" s="34"/>
       <c r="M314" s="35" t="str">
-        <f>IF(L314,L314/J314, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7297,7 +7294,7 @@
       <c r="K315" s="37"/>
       <c r="L315" s="34"/>
       <c r="M315" s="35" t="str">
-        <f>IF(L315,L315/J315, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7310,7 +7307,7 @@
       <c r="K316" s="37"/>
       <c r="L316" s="34"/>
       <c r="M316" s="35" t="str">
-        <f>IF(L316,L316/J316, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7323,7 +7320,7 @@
       <c r="K317" s="37"/>
       <c r="L317" s="34"/>
       <c r="M317" s="35" t="str">
-        <f>IF(L317,L317/J317, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7336,7 +7333,7 @@
       <c r="K318" s="37"/>
       <c r="L318" s="34"/>
       <c r="M318" s="35" t="str">
-        <f>IF(L318,L318/J318, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7349,7 +7346,7 @@
       <c r="K319" s="37"/>
       <c r="L319" s="34"/>
       <c r="M319" s="35" t="str">
-        <f>IF(L319,L319/J319, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7362,7 +7359,7 @@
       <c r="K320" s="37"/>
       <c r="L320" s="34"/>
       <c r="M320" s="35" t="str">
-        <f>IF(L320,L320/J320, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7375,7 +7372,7 @@
       <c r="K321" s="37"/>
       <c r="L321" s="34"/>
       <c r="M321" s="35" t="str">
-        <f>IF(L321,L321/J321, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7388,7 +7385,7 @@
       <c r="K322" s="37"/>
       <c r="L322" s="34"/>
       <c r="M322" s="35" t="str">
-        <f>IF(L322,L322/J322, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7401,7 +7398,7 @@
       <c r="K323" s="37"/>
       <c r="L323" s="34"/>
       <c r="M323" s="35" t="str">
-        <f>IF(L323,L323/J323, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7414,7 +7411,7 @@
       <c r="K324" s="37"/>
       <c r="L324" s="34"/>
       <c r="M324" s="35" t="str">
-        <f>IF(L324,L324/J324, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7427,7 +7424,7 @@
       <c r="K325" s="37"/>
       <c r="L325" s="34"/>
       <c r="M325" s="35" t="str">
-        <f>IF(L325,L325/J325, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7440,7 +7437,7 @@
       <c r="K326" s="37"/>
       <c r="L326" s="34"/>
       <c r="M326" s="35" t="str">
-        <f>IF(L326,L326/J326, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7453,7 +7450,7 @@
       <c r="K327" s="37"/>
       <c r="L327" s="34"/>
       <c r="M327" s="35" t="str">
-        <f>IF(L327,L327/J327, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7466,7 +7463,7 @@
       <c r="K328" s="37"/>
       <c r="L328" s="34"/>
       <c r="M328" s="35" t="str">
-        <f>IF(L328,L328/J328, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7479,7 +7476,7 @@
       <c r="K329" s="37"/>
       <c r="L329" s="34"/>
       <c r="M329" s="35" t="str">
-        <f>IF(L329,L329/J329, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7492,7 +7489,7 @@
       <c r="K330" s="37"/>
       <c r="L330" s="34"/>
       <c r="M330" s="35" t="str">
-        <f>IF(L330,L330/J330, "" )</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7505,7 +7502,7 @@
       <c r="K331" s="37"/>
       <c r="L331" s="34"/>
       <c r="M331" s="35" t="str">
-        <f>IF(L331,L331/J331, "" )</f>
+        <f t="shared" ref="M331:M394" si="5">IF(L331,L331/J331, "" )</f>
         <v/>
       </c>
     </row>
@@ -7518,7 +7515,7 @@
       <c r="K332" s="37"/>
       <c r="L332" s="34"/>
       <c r="M332" s="35" t="str">
-        <f>IF(L332,L332/J332, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7531,7 +7528,7 @@
       <c r="K333" s="37"/>
       <c r="L333" s="34"/>
       <c r="M333" s="35" t="str">
-        <f>IF(L333,L333/J333, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7544,7 +7541,7 @@
       <c r="K334" s="37"/>
       <c r="L334" s="34"/>
       <c r="M334" s="35" t="str">
-        <f>IF(L334,L334/J334, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7557,7 +7554,7 @@
       <c r="K335" s="37"/>
       <c r="L335" s="34"/>
       <c r="M335" s="35" t="str">
-        <f>IF(L335,L335/J335, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7570,7 +7567,7 @@
       <c r="K336" s="37"/>
       <c r="L336" s="34"/>
       <c r="M336" s="35" t="str">
-        <f>IF(L336,L336/J336, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7583,7 +7580,7 @@
       <c r="K337" s="37"/>
       <c r="L337" s="34"/>
       <c r="M337" s="35" t="str">
-        <f>IF(L337,L337/J337, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7596,7 +7593,7 @@
       <c r="K338" s="37"/>
       <c r="L338" s="34"/>
       <c r="M338" s="35" t="str">
-        <f>IF(L338,L338/J338, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7609,7 +7606,7 @@
       <c r="K339" s="37"/>
       <c r="L339" s="34"/>
       <c r="M339" s="35" t="str">
-        <f>IF(L339,L339/J339, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7622,7 +7619,7 @@
       <c r="K340" s="37"/>
       <c r="L340" s="34"/>
       <c r="M340" s="35" t="str">
-        <f>IF(L340,L340/J340, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7635,7 +7632,7 @@
       <c r="K341" s="37"/>
       <c r="L341" s="34"/>
       <c r="M341" s="35" t="str">
-        <f>IF(L341,L341/J341, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7648,7 +7645,7 @@
       <c r="K342" s="37"/>
       <c r="L342" s="34"/>
       <c r="M342" s="35" t="str">
-        <f>IF(L342,L342/J342, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7661,7 +7658,7 @@
       <c r="K343" s="37"/>
       <c r="L343" s="34"/>
       <c r="M343" s="35" t="str">
-        <f>IF(L343,L343/J343, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7674,7 +7671,7 @@
       <c r="K344" s="37"/>
       <c r="L344" s="34"/>
       <c r="M344" s="35" t="str">
-        <f>IF(L344,L344/J344, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7687,7 +7684,7 @@
       <c r="K345" s="37"/>
       <c r="L345" s="34"/>
       <c r="M345" s="35" t="str">
-        <f>IF(L345,L345/J345, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7700,7 +7697,7 @@
       <c r="K346" s="37"/>
       <c r="L346" s="34"/>
       <c r="M346" s="35" t="str">
-        <f>IF(L346,L346/J346, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7713,7 +7710,7 @@
       <c r="K347" s="37"/>
       <c r="L347" s="34"/>
       <c r="M347" s="35" t="str">
-        <f>IF(L347,L347/J347, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7726,7 +7723,7 @@
       <c r="K348" s="37"/>
       <c r="L348" s="34"/>
       <c r="M348" s="35" t="str">
-        <f>IF(L348,L348/J348, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7739,7 +7736,7 @@
       <c r="K349" s="37"/>
       <c r="L349" s="34"/>
       <c r="M349" s="35" t="str">
-        <f>IF(L349,L349/J349, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7752,7 +7749,7 @@
       <c r="K350" s="37"/>
       <c r="L350" s="34"/>
       <c r="M350" s="35" t="str">
-        <f>IF(L350,L350/J350, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7765,7 +7762,7 @@
       <c r="K351" s="37"/>
       <c r="L351" s="34"/>
       <c r="M351" s="35" t="str">
-        <f>IF(L351,L351/J351, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7778,7 +7775,7 @@
       <c r="K352" s="37"/>
       <c r="L352" s="34"/>
       <c r="M352" s="35" t="str">
-        <f>IF(L352,L352/J352, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7791,7 +7788,7 @@
       <c r="K353" s="37"/>
       <c r="L353" s="34"/>
       <c r="M353" s="35" t="str">
-        <f>IF(L353,L353/J353, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7804,7 +7801,7 @@
       <c r="K354" s="37"/>
       <c r="L354" s="34"/>
       <c r="M354" s="35" t="str">
-        <f>IF(L354,L354/J354, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7817,7 +7814,7 @@
       <c r="K355" s="37"/>
       <c r="L355" s="34"/>
       <c r="M355" s="35" t="str">
-        <f>IF(L355,L355/J355, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7830,7 +7827,7 @@
       <c r="K356" s="37"/>
       <c r="L356" s="34"/>
       <c r="M356" s="35" t="str">
-        <f>IF(L356,L356/J356, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7843,7 +7840,7 @@
       <c r="K357" s="37"/>
       <c r="L357" s="34"/>
       <c r="M357" s="35" t="str">
-        <f>IF(L357,L357/J357, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7856,7 +7853,7 @@
       <c r="K358" s="37"/>
       <c r="L358" s="34"/>
       <c r="M358" s="35" t="str">
-        <f>IF(L358,L358/J358, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7869,7 +7866,7 @@
       <c r="K359" s="37"/>
       <c r="L359" s="34"/>
       <c r="M359" s="35" t="str">
-        <f>IF(L359,L359/J359, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7882,7 +7879,7 @@
       <c r="K360" s="37"/>
       <c r="L360" s="34"/>
       <c r="M360" s="35" t="str">
-        <f>IF(L360,L360/J360, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7895,7 +7892,7 @@
       <c r="K361" s="37"/>
       <c r="L361" s="34"/>
       <c r="M361" s="35" t="str">
-        <f>IF(L361,L361/J361, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7908,7 +7905,7 @@
       <c r="K362" s="37"/>
       <c r="L362" s="34"/>
       <c r="M362" s="35" t="str">
-        <f>IF(L362,L362/J362, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7921,7 +7918,7 @@
       <c r="K363" s="37"/>
       <c r="L363" s="34"/>
       <c r="M363" s="35" t="str">
-        <f>IF(L363,L363/J363, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7934,7 +7931,7 @@
       <c r="K364" s="37"/>
       <c r="L364" s="34"/>
       <c r="M364" s="35" t="str">
-        <f>IF(L364,L364/J364, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7947,7 +7944,7 @@
       <c r="K365" s="37"/>
       <c r="L365" s="34"/>
       <c r="M365" s="35" t="str">
-        <f>IF(L365,L365/J365, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7960,7 +7957,7 @@
       <c r="K366" s="37"/>
       <c r="L366" s="34"/>
       <c r="M366" s="35" t="str">
-        <f>IF(L366,L366/J366, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7973,7 +7970,7 @@
       <c r="K367" s="37"/>
       <c r="L367" s="34"/>
       <c r="M367" s="35" t="str">
-        <f>IF(L367,L367/J367, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7986,7 +7983,7 @@
       <c r="K368" s="37"/>
       <c r="L368" s="34"/>
       <c r="M368" s="35" t="str">
-        <f>IF(L368,L368/J368, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7999,7 +7996,7 @@
       <c r="K369" s="37"/>
       <c r="L369" s="34"/>
       <c r="M369" s="35" t="str">
-        <f>IF(L369,L369/J369, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8012,7 +8009,7 @@
       <c r="K370" s="37"/>
       <c r="L370" s="34"/>
       <c r="M370" s="35" t="str">
-        <f>IF(L370,L370/J370, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8025,7 +8022,7 @@
       <c r="K371" s="37"/>
       <c r="L371" s="34"/>
       <c r="M371" s="35" t="str">
-        <f>IF(L371,L371/J371, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8038,7 +8035,7 @@
       <c r="K372" s="37"/>
       <c r="L372" s="34"/>
       <c r="M372" s="35" t="str">
-        <f>IF(L372,L372/J372, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8051,7 +8048,7 @@
       <c r="K373" s="37"/>
       <c r="L373" s="34"/>
       <c r="M373" s="35" t="str">
-        <f>IF(L373,L373/J373, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8064,7 +8061,7 @@
       <c r="K374" s="37"/>
       <c r="L374" s="34"/>
       <c r="M374" s="35" t="str">
-        <f>IF(L374,L374/J374, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8077,7 +8074,7 @@
       <c r="K375" s="37"/>
       <c r="L375" s="34"/>
       <c r="M375" s="35" t="str">
-        <f>IF(L375,L375/J375, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8090,7 +8087,7 @@
       <c r="K376" s="37"/>
       <c r="L376" s="34"/>
       <c r="M376" s="35" t="str">
-        <f>IF(L376,L376/J376, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8103,7 +8100,7 @@
       <c r="K377" s="37"/>
       <c r="L377" s="34"/>
       <c r="M377" s="35" t="str">
-        <f>IF(L377,L377/J377, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8116,7 +8113,7 @@
       <c r="K378" s="37"/>
       <c r="L378" s="34"/>
       <c r="M378" s="35" t="str">
-        <f>IF(L378,L378/J378, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8129,7 +8126,7 @@
       <c r="K379" s="37"/>
       <c r="L379" s="34"/>
       <c r="M379" s="35" t="str">
-        <f>IF(L379,L379/J379, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8142,7 +8139,7 @@
       <c r="K380" s="37"/>
       <c r="L380" s="34"/>
       <c r="M380" s="35" t="str">
-        <f>IF(L380,L380/J380, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8155,7 +8152,7 @@
       <c r="K381" s="37"/>
       <c r="L381" s="34"/>
       <c r="M381" s="35" t="str">
-        <f>IF(L381,L381/J381, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8168,7 +8165,7 @@
       <c r="K382" s="37"/>
       <c r="L382" s="34"/>
       <c r="M382" s="35" t="str">
-        <f>IF(L382,L382/J382, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8181,7 +8178,7 @@
       <c r="K383" s="37"/>
       <c r="L383" s="34"/>
       <c r="M383" s="35" t="str">
-        <f>IF(L383,L383/J383, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8194,7 +8191,7 @@
       <c r="K384" s="37"/>
       <c r="L384" s="34"/>
       <c r="M384" s="35" t="str">
-        <f>IF(L384,L384/J384, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8207,7 +8204,7 @@
       <c r="K385" s="37"/>
       <c r="L385" s="34"/>
       <c r="M385" s="35" t="str">
-        <f>IF(L385,L385/J385, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8220,7 +8217,7 @@
       <c r="K386" s="37"/>
       <c r="L386" s="34"/>
       <c r="M386" s="35" t="str">
-        <f>IF(L386,L386/J386, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8233,7 +8230,7 @@
       <c r="K387" s="37"/>
       <c r="L387" s="34"/>
       <c r="M387" s="35" t="str">
-        <f>IF(L387,L387/J387, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8246,7 +8243,7 @@
       <c r="K388" s="37"/>
       <c r="L388" s="34"/>
       <c r="M388" s="35" t="str">
-        <f>IF(L388,L388/J388, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8259,7 +8256,7 @@
       <c r="K389" s="37"/>
       <c r="L389" s="34"/>
       <c r="M389" s="35" t="str">
-        <f>IF(L389,L389/J389, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8272,7 +8269,7 @@
       <c r="K390" s="37"/>
       <c r="L390" s="34"/>
       <c r="M390" s="35" t="str">
-        <f>IF(L390,L390/J390, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8285,7 +8282,7 @@
       <c r="K391" s="37"/>
       <c r="L391" s="34"/>
       <c r="M391" s="35" t="str">
-        <f>IF(L391,L391/J391, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8298,7 +8295,7 @@
       <c r="K392" s="37"/>
       <c r="L392" s="34"/>
       <c r="M392" s="35" t="str">
-        <f>IF(L392,L392/J392, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8311,7 +8308,7 @@
       <c r="K393" s="37"/>
       <c r="L393" s="34"/>
       <c r="M393" s="35" t="str">
-        <f>IF(L393,L393/J393, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8324,7 +8321,7 @@
       <c r="K394" s="37"/>
       <c r="L394" s="34"/>
       <c r="M394" s="35" t="str">
-        <f>IF(L394,L394/J394, "" )</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8337,7 +8334,7 @@
       <c r="K395" s="37"/>
       <c r="L395" s="34"/>
       <c r="M395" s="35" t="str">
-        <f>IF(L395,L395/J395, "" )</f>
+        <f t="shared" ref="M395:M458" si="6">IF(L395,L395/J395, "" )</f>
         <v/>
       </c>
     </row>
@@ -8350,7 +8347,7 @@
       <c r="K396" s="37"/>
       <c r="L396" s="34"/>
       <c r="M396" s="35" t="str">
-        <f>IF(L396,L396/J396, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8363,7 +8360,7 @@
       <c r="K397" s="37"/>
       <c r="L397" s="34"/>
       <c r="M397" s="35" t="str">
-        <f>IF(L397,L397/J397, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8376,7 +8373,7 @@
       <c r="K398" s="37"/>
       <c r="L398" s="34"/>
       <c r="M398" s="35" t="str">
-        <f>IF(L398,L398/J398, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8389,7 +8386,7 @@
       <c r="K399" s="37"/>
       <c r="L399" s="34"/>
       <c r="M399" s="35" t="str">
-        <f>IF(L399,L399/J399, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8402,7 +8399,7 @@
       <c r="K400" s="37"/>
       <c r="L400" s="34"/>
       <c r="M400" s="35" t="str">
-        <f>IF(L400,L400/J400, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8415,7 +8412,7 @@
       <c r="K401" s="37"/>
       <c r="L401" s="34"/>
       <c r="M401" s="35" t="str">
-        <f>IF(L401,L401/J401, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8428,7 +8425,7 @@
       <c r="K402" s="37"/>
       <c r="L402" s="34"/>
       <c r="M402" s="35" t="str">
-        <f>IF(L402,L402/J402, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8441,7 +8438,7 @@
       <c r="K403" s="37"/>
       <c r="L403" s="34"/>
       <c r="M403" s="35" t="str">
-        <f>IF(L403,L403/J403, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8454,7 +8451,7 @@
       <c r="K404" s="37"/>
       <c r="L404" s="34"/>
       <c r="M404" s="35" t="str">
-        <f>IF(L404,L404/J404, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8467,7 +8464,7 @@
       <c r="K405" s="37"/>
       <c r="L405" s="34"/>
       <c r="M405" s="35" t="str">
-        <f>IF(L405,L405/J405, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8480,7 +8477,7 @@
       <c r="K406" s="37"/>
       <c r="L406" s="34"/>
       <c r="M406" s="35" t="str">
-        <f>IF(L406,L406/J406, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8493,7 +8490,7 @@
       <c r="K407" s="37"/>
       <c r="L407" s="34"/>
       <c r="M407" s="35" t="str">
-        <f>IF(L407,L407/J407, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8506,7 +8503,7 @@
       <c r="K408" s="37"/>
       <c r="L408" s="34"/>
       <c r="M408" s="35" t="str">
-        <f>IF(L408,L408/J408, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8519,7 +8516,7 @@
       <c r="K409" s="37"/>
       <c r="L409" s="34"/>
       <c r="M409" s="35" t="str">
-        <f>IF(L409,L409/J409, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8532,7 +8529,7 @@
       <c r="K410" s="37"/>
       <c r="L410" s="34"/>
       <c r="M410" s="35" t="str">
-        <f>IF(L410,L410/J410, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8545,7 +8542,7 @@
       <c r="K411" s="37"/>
       <c r="L411" s="34"/>
       <c r="M411" s="35" t="str">
-        <f>IF(L411,L411/J411, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8558,7 +8555,7 @@
       <c r="K412" s="37"/>
       <c r="L412" s="34"/>
       <c r="M412" s="35" t="str">
-        <f>IF(L412,L412/J412, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8571,7 +8568,7 @@
       <c r="K413" s="37"/>
       <c r="L413" s="34"/>
       <c r="M413" s="35" t="str">
-        <f>IF(L413,L413/J413, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8584,7 +8581,7 @@
       <c r="K414" s="37"/>
       <c r="L414" s="34"/>
       <c r="M414" s="35" t="str">
-        <f>IF(L414,L414/J414, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8597,7 +8594,7 @@
       <c r="K415" s="37"/>
       <c r="L415" s="34"/>
       <c r="M415" s="35" t="str">
-        <f>IF(L415,L415/J415, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8610,7 +8607,7 @@
       <c r="K416" s="37"/>
       <c r="L416" s="34"/>
       <c r="M416" s="35" t="str">
-        <f>IF(L416,L416/J416, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8623,7 +8620,7 @@
       <c r="K417" s="37"/>
       <c r="L417" s="34"/>
       <c r="M417" s="35" t="str">
-        <f>IF(L417,L417/J417, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8636,7 +8633,7 @@
       <c r="K418" s="37"/>
       <c r="L418" s="34"/>
       <c r="M418" s="35" t="str">
-        <f>IF(L418,L418/J418, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8649,7 +8646,7 @@
       <c r="K419" s="37"/>
       <c r="L419" s="34"/>
       <c r="M419" s="35" t="str">
-        <f>IF(L419,L419/J419, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8662,7 +8659,7 @@
       <c r="K420" s="37"/>
       <c r="L420" s="34"/>
       <c r="M420" s="35" t="str">
-        <f>IF(L420,L420/J420, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8675,7 +8672,7 @@
       <c r="K421" s="37"/>
       <c r="L421" s="34"/>
       <c r="M421" s="35" t="str">
-        <f>IF(L421,L421/J421, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8688,7 +8685,7 @@
       <c r="K422" s="37"/>
       <c r="L422" s="34"/>
       <c r="M422" s="35" t="str">
-        <f>IF(L422,L422/J422, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8701,7 +8698,7 @@
       <c r="K423" s="37"/>
       <c r="L423" s="34"/>
       <c r="M423" s="35" t="str">
-        <f>IF(L423,L423/J423, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8714,7 +8711,7 @@
       <c r="K424" s="37"/>
       <c r="L424" s="34"/>
       <c r="M424" s="35" t="str">
-        <f>IF(L424,L424/J424, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8727,7 +8724,7 @@
       <c r="K425" s="37"/>
       <c r="L425" s="34"/>
       <c r="M425" s="35" t="str">
-        <f>IF(L425,L425/J425, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8740,7 +8737,7 @@
       <c r="K426" s="37"/>
       <c r="L426" s="34"/>
       <c r="M426" s="35" t="str">
-        <f>IF(L426,L426/J426, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8753,7 +8750,7 @@
       <c r="K427" s="37"/>
       <c r="L427" s="34"/>
       <c r="M427" s="35" t="str">
-        <f>IF(L427,L427/J427, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8766,7 +8763,7 @@
       <c r="K428" s="37"/>
       <c r="L428" s="34"/>
       <c r="M428" s="35" t="str">
-        <f>IF(L428,L428/J428, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8779,7 +8776,7 @@
       <c r="K429" s="37"/>
       <c r="L429" s="34"/>
       <c r="M429" s="35" t="str">
-        <f>IF(L429,L429/J429, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8792,7 +8789,7 @@
       <c r="K430" s="37"/>
       <c r="L430" s="34"/>
       <c r="M430" s="35" t="str">
-        <f>IF(L430,L430/J430, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8805,7 +8802,7 @@
       <c r="K431" s="37"/>
       <c r="L431" s="34"/>
       <c r="M431" s="35" t="str">
-        <f>IF(L431,L431/J431, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8818,7 +8815,7 @@
       <c r="K432" s="37"/>
       <c r="L432" s="34"/>
       <c r="M432" s="35" t="str">
-        <f>IF(L432,L432/J432, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8831,7 +8828,7 @@
       <c r="K433" s="37"/>
       <c r="L433" s="34"/>
       <c r="M433" s="35" t="str">
-        <f>IF(L433,L433/J433, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8844,7 +8841,7 @@
       <c r="K434" s="37"/>
       <c r="L434" s="34"/>
       <c r="M434" s="35" t="str">
-        <f>IF(L434,L434/J434, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8857,7 +8854,7 @@
       <c r="K435" s="37"/>
       <c r="L435" s="34"/>
       <c r="M435" s="35" t="str">
-        <f>IF(L435,L435/J435, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8870,7 +8867,7 @@
       <c r="K436" s="37"/>
       <c r="L436" s="34"/>
       <c r="M436" s="35" t="str">
-        <f>IF(L436,L436/J436, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8883,7 +8880,7 @@
       <c r="K437" s="37"/>
       <c r="L437" s="34"/>
       <c r="M437" s="35" t="str">
-        <f>IF(L437,L437/J437, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8896,7 +8893,7 @@
       <c r="K438" s="37"/>
       <c r="L438" s="34"/>
       <c r="M438" s="35" t="str">
-        <f>IF(L438,L438/J438, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8909,7 +8906,7 @@
       <c r="K439" s="37"/>
       <c r="L439" s="34"/>
       <c r="M439" s="35" t="str">
-        <f>IF(L439,L439/J439, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8922,7 +8919,7 @@
       <c r="K440" s="37"/>
       <c r="L440" s="34"/>
       <c r="M440" s="35" t="str">
-        <f>IF(L440,L440/J440, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8935,7 +8932,7 @@
       <c r="K441" s="37"/>
       <c r="L441" s="34"/>
       <c r="M441" s="35" t="str">
-        <f>IF(L441,L441/J441, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8948,7 +8945,7 @@
       <c r="K442" s="37"/>
       <c r="L442" s="34"/>
       <c r="M442" s="35" t="str">
-        <f>IF(L442,L442/J442, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8961,7 +8958,7 @@
       <c r="K443" s="37"/>
       <c r="L443" s="34"/>
       <c r="M443" s="35" t="str">
-        <f>IF(L443,L443/J443, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8974,7 +8971,7 @@
       <c r="K444" s="37"/>
       <c r="L444" s="34"/>
       <c r="M444" s="35" t="str">
-        <f>IF(L444,L444/J444, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8987,7 +8984,7 @@
       <c r="K445" s="37"/>
       <c r="L445" s="34"/>
       <c r="M445" s="35" t="str">
-        <f>IF(L445,L445/J445, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9000,7 +8997,7 @@
       <c r="K446" s="37"/>
       <c r="L446" s="34"/>
       <c r="M446" s="35" t="str">
-        <f>IF(L446,L446/J446, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9013,7 +9010,7 @@
       <c r="K447" s="37"/>
       <c r="L447" s="34"/>
       <c r="M447" s="35" t="str">
-        <f>IF(L447,L447/J447, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9026,7 +9023,7 @@
       <c r="K448" s="37"/>
       <c r="L448" s="34"/>
       <c r="M448" s="35" t="str">
-        <f>IF(L448,L448/J448, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9039,7 +9036,7 @@
       <c r="K449" s="37"/>
       <c r="L449" s="34"/>
       <c r="M449" s="35" t="str">
-        <f>IF(L449,L449/J449, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9052,7 +9049,7 @@
       <c r="K450" s="37"/>
       <c r="L450" s="34"/>
       <c r="M450" s="35" t="str">
-        <f>IF(L450,L450/J450, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9065,7 +9062,7 @@
       <c r="K451" s="37"/>
       <c r="L451" s="34"/>
       <c r="M451" s="35" t="str">
-        <f>IF(L451,L451/J451, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9078,7 +9075,7 @@
       <c r="K452" s="37"/>
       <c r="L452" s="34"/>
       <c r="M452" s="35" t="str">
-        <f>IF(L452,L452/J452, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9091,7 +9088,7 @@
       <c r="K453" s="37"/>
       <c r="L453" s="34"/>
       <c r="M453" s="35" t="str">
-        <f>IF(L453,L453/J453, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9104,7 +9101,7 @@
       <c r="K454" s="37"/>
       <c r="L454" s="34"/>
       <c r="M454" s="35" t="str">
-        <f>IF(L454,L454/J454, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9117,7 +9114,7 @@
       <c r="K455" s="37"/>
       <c r="L455" s="34"/>
       <c r="M455" s="35" t="str">
-        <f>IF(L455,L455/J455, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9130,7 +9127,7 @@
       <c r="K456" s="37"/>
       <c r="L456" s="34"/>
       <c r="M456" s="35" t="str">
-        <f>IF(L456,L456/J456, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9143,7 +9140,7 @@
       <c r="K457" s="37"/>
       <c r="L457" s="34"/>
       <c r="M457" s="35" t="str">
-        <f>IF(L457,L457/J457, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9156,7 +9153,7 @@
       <c r="K458" s="37"/>
       <c r="L458" s="34"/>
       <c r="M458" s="35" t="str">
-        <f>IF(L458,L458/J458, "" )</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9169,7 +9166,7 @@
       <c r="K459" s="37"/>
       <c r="L459" s="34"/>
       <c r="M459" s="35" t="str">
-        <f>IF(L459,L459/J459, "" )</f>
+        <f t="shared" ref="M459:M522" si="7">IF(L459,L459/J459, "" )</f>
         <v/>
       </c>
     </row>
@@ -9182,7 +9179,7 @@
       <c r="K460" s="37"/>
       <c r="L460" s="34"/>
       <c r="M460" s="35" t="str">
-        <f>IF(L460,L460/J460, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9195,7 +9192,7 @@
       <c r="K461" s="37"/>
       <c r="L461" s="34"/>
       <c r="M461" s="35" t="str">
-        <f>IF(L461,L461/J461, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9208,7 +9205,7 @@
       <c r="K462" s="37"/>
       <c r="L462" s="34"/>
       <c r="M462" s="35" t="str">
-        <f>IF(L462,L462/J462, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9221,7 +9218,7 @@
       <c r="K463" s="37"/>
       <c r="L463" s="34"/>
       <c r="M463" s="35" t="str">
-        <f>IF(L463,L463/J463, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9234,7 +9231,7 @@
       <c r="K464" s="37"/>
       <c r="L464" s="34"/>
       <c r="M464" s="35" t="str">
-        <f>IF(L464,L464/J464, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9247,7 +9244,7 @@
       <c r="K465" s="37"/>
       <c r="L465" s="34"/>
       <c r="M465" s="35" t="str">
-        <f>IF(L465,L465/J465, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9260,7 +9257,7 @@
       <c r="K466" s="37"/>
       <c r="L466" s="34"/>
       <c r="M466" s="35" t="str">
-        <f>IF(L466,L466/J466, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9273,7 +9270,7 @@
       <c r="K467" s="37"/>
       <c r="L467" s="34"/>
       <c r="M467" s="35" t="str">
-        <f>IF(L467,L467/J467, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9286,7 +9283,7 @@
       <c r="K468" s="37"/>
       <c r="L468" s="34"/>
       <c r="M468" s="35" t="str">
-        <f>IF(L468,L468/J468, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9299,7 +9296,7 @@
       <c r="K469" s="37"/>
       <c r="L469" s="34"/>
       <c r="M469" s="35" t="str">
-        <f>IF(L469,L469/J469, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9312,7 +9309,7 @@
       <c r="K470" s="37"/>
       <c r="L470" s="34"/>
       <c r="M470" s="35" t="str">
-        <f>IF(L470,L470/J470, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9325,7 +9322,7 @@
       <c r="K471" s="37"/>
       <c r="L471" s="34"/>
       <c r="M471" s="35" t="str">
-        <f>IF(L471,L471/J471, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9338,7 +9335,7 @@
       <c r="K472" s="37"/>
       <c r="L472" s="34"/>
       <c r="M472" s="35" t="str">
-        <f>IF(L472,L472/J472, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9351,7 +9348,7 @@
       <c r="K473" s="37"/>
       <c r="L473" s="34"/>
       <c r="M473" s="35" t="str">
-        <f>IF(L473,L473/J473, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9364,7 +9361,7 @@
       <c r="K474" s="37"/>
       <c r="L474" s="34"/>
       <c r="M474" s="35" t="str">
-        <f>IF(L474,L474/J474, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9377,7 +9374,7 @@
       <c r="K475" s="37"/>
       <c r="L475" s="34"/>
       <c r="M475" s="35" t="str">
-        <f>IF(L475,L475/J475, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9390,7 +9387,7 @@
       <c r="K476" s="37"/>
       <c r="L476" s="34"/>
       <c r="M476" s="35" t="str">
-        <f>IF(L476,L476/J476, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9403,7 +9400,7 @@
       <c r="K477" s="37"/>
       <c r="L477" s="34"/>
       <c r="M477" s="35" t="str">
-        <f>IF(L477,L477/J477, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9416,7 +9413,7 @@
       <c r="K478" s="37"/>
       <c r="L478" s="34"/>
       <c r="M478" s="35" t="str">
-        <f>IF(L478,L478/J478, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9429,7 +9426,7 @@
       <c r="K479" s="37"/>
       <c r="L479" s="34"/>
       <c r="M479" s="35" t="str">
-        <f>IF(L479,L479/J479, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9442,7 +9439,7 @@
       <c r="K480" s="37"/>
       <c r="L480" s="34"/>
       <c r="M480" s="35" t="str">
-        <f>IF(L480,L480/J480, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9455,7 +9452,7 @@
       <c r="K481" s="37"/>
       <c r="L481" s="34"/>
       <c r="M481" s="35" t="str">
-        <f>IF(L481,L481/J481, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9468,7 +9465,7 @@
       <c r="K482" s="37"/>
       <c r="L482" s="34"/>
       <c r="M482" s="35" t="str">
-        <f>IF(L482,L482/J482, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9481,13 +9478,13 @@
       <c r="K483" s="37"/>
       <c r="L483" s="34"/>
       <c r="M483" s="35" t="str">
-        <f>IF(L483,L483/J483, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M484" s="35" t="str">
-        <f>IF(L484,L484/J484, "" )</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
